--- a/biology/Biochimie/Phytostérol/Phytostérol.xlsx
+++ b/biology/Biochimie/Phytostérol/Phytostérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phytost%C3%A9rol</t>
+          <t>Phytostérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les phytostérols ou stérols naturels sont un groupe de stérols naturellement présents dans la membrane cellulaire des plantes et de certains animaux[a]. On les trouve en petite quantité dans les huiles végétales, particulièrement dans l'huile d'argousier (1 640 mg/100 g d'huile)[3], l'huile de maïs (968 mg/100 g)[4], l'huile de soja (327 mg/100 g)[5] et dans les racines de la petite ortie dite aussi ortie brûlante (Urtica urens)[6].
-Ils sont commercialisés sous la forme d'une poudre blanche à l'odeur douce caractéristique, insoluble dans l'eau mais soluble dans les alcools. Ce sont des composés bioactifs ayant des applications en médecine et en cosmétique, et utilisés aussi comme compléments alimentaires. La consommation journalière de 2 g de phytostérols sous forme de corps gras enrichis en ces molécules (Encapsulation liposomale) abaisse le cholestérol et le LDL cholestérol d'environ 10 %[7]. Il n'existe cependant pas de preuve que cette diminution du cholestérol par les phytostérols se traduise par une diminution du risque de survenue de maladies cardiovasculaires[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phytostérols ou stérols naturels sont un groupe de stérols naturellement présents dans la membrane cellulaire des plantes et de certains animaux[a]. On les trouve en petite quantité dans les huiles végétales, particulièrement dans l'huile d'argousier (1 640 mg/100 g d'huile), l'huile de maïs (968 mg/100 g), l'huile de soja (327 mg/100 g) et dans les racines de la petite ortie dite aussi ortie brûlante (Urtica urens).
+Ils sont commercialisés sous la forme d'une poudre blanche à l'odeur douce caractéristique, insoluble dans l'eau mais soluble dans les alcools. Ce sont des composés bioactifs ayant des applications en médecine et en cosmétique, et utilisés aussi comme compléments alimentaires. La consommation journalière de 2 g de phytostérols sous forme de corps gras enrichis en ces molécules (Encapsulation liposomale) abaisse le cholestérol et le LDL cholestérol d'environ 10 %. Il n'existe cependant pas de preuve que cette diminution du cholestérol par les phytostérols se traduise par une diminution du risque de survenue de maladies cardiovasculaires.
 On peut citer parmi les complexes de phytostérols, isolés d'huiles végétales, la cholestatine composée de campestérol, stigmastérol et de brassicastérol, vendue comme complément alimentaire.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phytost%C3%A9rol</t>
+          <t>Phytostérol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phytostérols bloquent l’absorption intestinale, une dose de 1,5 à 2,5 g/jour entraîne une baisse de 10 à 14 % du LDL-cholestérol sanguin.
 Mais tout n'est pas bénéfique : des expériences faites avec des yaourts enrichis démontrent effectivement une diminution du cholestérol, mais fait ressortir une augmentation du taux de phytostérols dans le sang de façon très significative chez tous ceux qui en consomment. Plus le taux de phytostérols est élevé, plus le risque cardiovasculaire est grand[réf. nécessaire].
